--- a/Årsplan IT2 2019 - 2020.xlsx
+++ b/Årsplan IT2 2019 - 2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maai1807\OneDrive - Akershus FK\2019-2020\IT2\Årsplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maai1807\OneDrive - Akershus FK\2019-2020\IT2\GitHub\IT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{CD8F2416-BA2D-44AF-B727-4520D6C85D27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{1F1E21F9-8C7B-418E-BE67-0BF7B30781C3}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{CD8F2416-BA2D-44AF-B727-4520D6C85D27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{0FF03CF6-28C7-4CCC-9050-2F65A2160217}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="19800" windowHeight="10350" xr2:uid="{38460E7D-CCFA-4EE5-949C-46225F648CEB}"/>
+    <workbookView xWindow="0" yWindow="570" windowWidth="16425" windowHeight="10350" xr2:uid="{38460E7D-CCFA-4EE5-949C-46225F648CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Uke</t>
   </si>
@@ -274,6 +274,21 @@
   </si>
   <si>
     <t>Eksamen 29.mai</t>
+  </si>
+  <si>
+    <t>Kap 1</t>
+  </si>
+  <si>
+    <t>Kap 2+3</t>
+  </si>
+  <si>
+    <t>Kap 4.1-4.2</t>
+  </si>
+  <si>
+    <t>4.4-4.5</t>
+  </si>
+  <si>
+    <t>Kap 4</t>
   </si>
 </sst>
 </file>
@@ -419,7 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -475,6 +490,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -795,7 +813,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="47.25" customHeight="1"/>
@@ -846,7 +864,9 @@
         <v>10</v>
       </c>
       <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="F2" s="8"/>
       <c r="G2" s="9" t="s">
         <v>29</v>
@@ -865,7 +885,9 @@
         <v>11</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="F3" s="8" t="s">
         <v>70</v>
       </c>
@@ -875,18 +897,20 @@
     </row>
     <row r="4" spans="1:7" ht="47.25" customHeight="1">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A47" si="0">A3+1</f>
+        <f t="shared" ref="A4:A46" si="0">A3+1</f>
         <v>36</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" ref="B4:B47" si="1">B3+7</f>
+        <f t="shared" ref="B4:B46" si="1">B3+7</f>
         <v>43713</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="F4" s="8">
         <v>10</v>
       </c>
@@ -907,7 +931,9 @@
         <v>13</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="F5" s="8">
         <v>10</v>
       </c>
@@ -928,7 +954,9 @@
         <v>40</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
+      <c r="E6" s="27" t="s">
+        <v>85</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>71</v>
       </c>
@@ -2044,18 +2072,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2077,25 +2105,25 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172C85C5-652D-4CCD-B7BD-00301EC57B29}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBB68AB-6E3D-4C78-BF6E-CA57D65676F3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="7ee59893-5bfb-4ba5-ba61-3f9ac5a63a3a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBB68AB-6E3D-4C78-BF6E-CA57D65676F3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172C85C5-652D-4CCD-B7BD-00301EC57B29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7ee59893-5bfb-4ba5-ba61-3f9ac5a63a3a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Årsplan IT2 2019 - 2020.xlsx
+++ b/Årsplan IT2 2019 - 2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maai1807\OneDrive - Akershus FK\2019-2020\IT2\GitHub\IT2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{CD8F2416-BA2D-44AF-B727-4520D6C85D27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{0FF03CF6-28C7-4CCC-9050-2F65A2160217}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{CD8F2416-BA2D-44AF-B727-4520D6C85D27}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{AA487C9C-57FF-4408-8024-55912200149B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="570" windowWidth="16425" windowHeight="10350" xr2:uid="{38460E7D-CCFA-4EE5-949C-46225F648CEB}"/>
+    <workbookView minimized="1" xWindow="1815" yWindow="915" windowWidth="16425" windowHeight="10350" xr2:uid="{38460E7D-CCFA-4EE5-949C-46225F648CEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -812,7 +812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8F4BB9-4CD2-408B-B076-E8E6B9A8ACB8}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1753,12 +1753,13 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:3" ht="47.25" customHeight="1">
+    <row r="60" spans="2:3" ht="24" customHeight="1"/>
+    <row r="61" spans="2:3" ht="27" customHeight="1">
       <c r="C61" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="47.25" customHeight="1">
+    <row r="62" spans="2:3" ht="24.75" customHeight="1">
       <c r="C62" s="21" t="s">
         <v>47</v>
       </c>
@@ -1902,6 +1903,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010045865D2A2404A340A9116C967D5A8A18" ma:contentTypeVersion="8" ma:contentTypeDescription="Opprett et nytt dokument." ma:contentTypeScope="" ma:versionID="c1170821e5ddd0badc770b112e96b910">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7ee59893-5bfb-4ba5-ba61-3f9ac5a63a3a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="105b5d8b40729520ebc3a32ed622274c" ns3:_="">
     <xsd:import namespace="7ee59893-5bfb-4ba5-ba61-3f9ac5a63a3a"/>
@@ -2071,15 +2081,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2087,6 +2088,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBB68AB-6E3D-4C78-BF6E-CA57D65676F3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C3C736-80A1-4756-8BB9-D50C1112AF36}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2104,26 +2113,18 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9EBB68AB-6E3D-4C78-BF6E-CA57D65676F3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{172C85C5-652D-4CCD-B7BD-00301EC57B29}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="7ee59893-5bfb-4ba5-ba61-3f9ac5a63a3a"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>